--- a/mainSecond/prophages2.xlsx
+++ b/mainSecond/prophages2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9466" uniqueCount="3616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9613" uniqueCount="3616">
   <si>
     <t>accessionNumbers</t>
   </si>
@@ -41272,6 +41272,9 @@
       <c r="F1306" t="s">
         <v>3614</v>
       </c>
+      <c r="G1306" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1307" spans="1:7">
       <c r="A1307" t="s">
@@ -41292,6 +41295,9 @@
       <c r="F1307" t="s">
         <v>3614</v>
       </c>
+      <c r="G1307" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1308" spans="1:7">
       <c r="A1308" t="s">
@@ -41312,6 +41318,9 @@
       <c r="F1308" t="s">
         <v>3614</v>
       </c>
+      <c r="G1308" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1309" spans="1:7">
       <c r="A1309" t="s">
@@ -41332,6 +41341,9 @@
       <c r="F1309" t="s">
         <v>3614</v>
       </c>
+      <c r="G1309" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1310" spans="1:7">
       <c r="A1310" t="s">
@@ -41352,6 +41364,9 @@
       <c r="F1310" t="s">
         <v>3614</v>
       </c>
+      <c r="G1310" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1311" spans="1:7">
       <c r="A1311" t="s">
@@ -41372,6 +41387,9 @@
       <c r="F1311" t="s">
         <v>3614</v>
       </c>
+      <c r="G1311" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1312" spans="1:7">
       <c r="A1312" t="s">
@@ -41392,8 +41410,11 @@
       <c r="F1312" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1313" spans="1:6">
+      <c r="G1312" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7">
       <c r="A1313" t="s">
         <v>1318</v>
       </c>
@@ -41412,8 +41433,11 @@
       <c r="F1313" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1314" spans="1:6">
+      <c r="G1313" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7">
       <c r="A1314" t="s">
         <v>1319</v>
       </c>
@@ -41432,8 +41456,11 @@
       <c r="F1314" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1315" spans="1:6">
+      <c r="G1314" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7">
       <c r="A1315" t="s">
         <v>1320</v>
       </c>
@@ -41452,8 +41479,11 @@
       <c r="F1315" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1316" spans="1:6">
+      <c r="G1315" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7">
       <c r="A1316" t="s">
         <v>1321</v>
       </c>
@@ -41472,8 +41502,11 @@
       <c r="F1316" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1317" spans="1:6">
+      <c r="G1316" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7">
       <c r="A1317" t="s">
         <v>1322</v>
       </c>
@@ -41492,8 +41525,11 @@
       <c r="F1317" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1318" spans="1:6">
+      <c r="G1317" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7">
       <c r="A1318" t="s">
         <v>1323</v>
       </c>
@@ -41512,8 +41548,11 @@
       <c r="F1318" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1319" spans="1:6">
+      <c r="G1318" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7">
       <c r="A1319" t="s">
         <v>1324</v>
       </c>
@@ -41532,8 +41571,11 @@
       <c r="F1319" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1320" spans="1:6">
+      <c r="G1319" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7">
       <c r="A1320" t="s">
         <v>1325</v>
       </c>
@@ -41552,8 +41594,11 @@
       <c r="F1320" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1321" spans="1:6">
+      <c r="G1320" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7">
       <c r="A1321" t="s">
         <v>1326</v>
       </c>
@@ -41572,8 +41617,11 @@
       <c r="F1321" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1322" spans="1:6">
+      <c r="G1321" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7">
       <c r="A1322" t="s">
         <v>1327</v>
       </c>
@@ -41592,8 +41640,11 @@
       <c r="F1322" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1323" spans="1:6">
+      <c r="G1322" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7">
       <c r="A1323" t="s">
         <v>1328</v>
       </c>
@@ -41612,8 +41663,11 @@
       <c r="F1323" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1324" spans="1:6">
+      <c r="G1323" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7">
       <c r="A1324" t="s">
         <v>1329</v>
       </c>
@@ -41632,8 +41686,11 @@
       <c r="F1324" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1325" spans="1:6">
+      <c r="G1324" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7">
       <c r="A1325" t="s">
         <v>1330</v>
       </c>
@@ -41652,8 +41709,11 @@
       <c r="F1325" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1326" spans="1:6">
+      <c r="G1325" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7">
       <c r="A1326" t="s">
         <v>1331</v>
       </c>
@@ -41672,8 +41732,11 @@
       <c r="F1326" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1327" spans="1:6">
+      <c r="G1326" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7">
       <c r="A1327" t="s">
         <v>1332</v>
       </c>
@@ -41692,8 +41755,11 @@
       <c r="F1327" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1328" spans="1:6">
+      <c r="G1327" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7">
       <c r="A1328" t="s">
         <v>1333</v>
       </c>
@@ -41712,8 +41778,11 @@
       <c r="F1328" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1329" spans="1:6">
+      <c r="G1328" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7">
       <c r="A1329" t="s">
         <v>1334</v>
       </c>
@@ -41732,8 +41801,11 @@
       <c r="F1329" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1330" spans="1:6">
+      <c r="G1329" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7">
       <c r="A1330" t="s">
         <v>1335</v>
       </c>
@@ -41752,8 +41824,11 @@
       <c r="F1330" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1331" spans="1:6">
+      <c r="G1330" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7">
       <c r="A1331" t="s">
         <v>1336</v>
       </c>
@@ -41772,8 +41847,11 @@
       <c r="F1331" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1332" spans="1:6">
+      <c r="G1331" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7">
       <c r="A1332" t="s">
         <v>1337</v>
       </c>
@@ -41792,8 +41870,11 @@
       <c r="F1332" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1333" spans="1:6">
+      <c r="G1332" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7">
       <c r="A1333" t="s">
         <v>1338</v>
       </c>
@@ -41812,8 +41893,11 @@
       <c r="F1333" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1334" spans="1:6">
+      <c r="G1333" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7">
       <c r="A1334" t="s">
         <v>1339</v>
       </c>
@@ -41832,8 +41916,11 @@
       <c r="F1334" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1335" spans="1:6">
+      <c r="G1334" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7">
       <c r="A1335" t="s">
         <v>1340</v>
       </c>
@@ -41852,8 +41939,11 @@
       <c r="F1335" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1336" spans="1:6">
+      <c r="G1335" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7">
       <c r="A1336" t="s">
         <v>1341</v>
       </c>
@@ -41872,8 +41962,11 @@
       <c r="F1336" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1337" spans="1:6">
+      <c r="G1336" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7">
       <c r="A1337" t="s">
         <v>1342</v>
       </c>
@@ -41892,8 +41985,11 @@
       <c r="F1337" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1338" spans="1:6">
+      <c r="G1337" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7">
       <c r="A1338" t="s">
         <v>1343</v>
       </c>
@@ -41912,8 +42008,11 @@
       <c r="F1338" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1339" spans="1:6">
+      <c r="G1338" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7">
       <c r="A1339" t="s">
         <v>1344</v>
       </c>
@@ -41932,8 +42031,11 @@
       <c r="F1339" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1340" spans="1:6">
+      <c r="G1339" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7">
       <c r="A1340" t="s">
         <v>1345</v>
       </c>
@@ -41952,8 +42054,11 @@
       <c r="F1340" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1341" spans="1:6">
+      <c r="G1340" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7">
       <c r="A1341" t="s">
         <v>1346</v>
       </c>
@@ -41972,8 +42077,11 @@
       <c r="F1341" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1342" spans="1:6">
+      <c r="G1341" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7">
       <c r="A1342" t="s">
         <v>1347</v>
       </c>
@@ -41992,8 +42100,11 @@
       <c r="F1342" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1343" spans="1:6">
+      <c r="G1342" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7">
       <c r="A1343" t="s">
         <v>1348</v>
       </c>
@@ -42012,8 +42123,11 @@
       <c r="F1343" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1344" spans="1:6">
+      <c r="G1343" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7">
       <c r="A1344" t="s">
         <v>1349</v>
       </c>
@@ -42032,8 +42146,11 @@
       <c r="F1344" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1345" spans="1:6">
+      <c r="G1344" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7">
       <c r="A1345" t="s">
         <v>1350</v>
       </c>
@@ -42052,8 +42169,11 @@
       <c r="F1345" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1346" spans="1:6">
+      <c r="G1345" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7">
       <c r="A1346" t="s">
         <v>1351</v>
       </c>
@@ -42072,8 +42192,11 @@
       <c r="F1346" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1347" spans="1:6">
+      <c r="G1346" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7">
       <c r="A1347" t="s">
         <v>1352</v>
       </c>
@@ -42092,8 +42215,11 @@
       <c r="F1347" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1348" spans="1:6">
+      <c r="G1347" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7">
       <c r="A1348" t="s">
         <v>1353</v>
       </c>
@@ -42112,8 +42238,11 @@
       <c r="F1348" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1349" spans="1:6">
+      <c r="G1348" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7">
       <c r="A1349" t="s">
         <v>1354</v>
       </c>
@@ -42132,8 +42261,11 @@
       <c r="F1349" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1350" spans="1:6">
+      <c r="G1349" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7">
       <c r="A1350" t="s">
         <v>1355</v>
       </c>
@@ -42152,8 +42284,11 @@
       <c r="F1350" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1351" spans="1:6">
+      <c r="G1350" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7">
       <c r="A1351" t="s">
         <v>1356</v>
       </c>
@@ -42172,8 +42307,11 @@
       <c r="F1351" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1352" spans="1:6">
+      <c r="G1351" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7">
       <c r="A1352" t="s">
         <v>1357</v>
       </c>
@@ -42192,8 +42330,11 @@
       <c r="F1352" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1353" spans="1:6">
+      <c r="G1352" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7">
       <c r="A1353" t="s">
         <v>1358</v>
       </c>
@@ -42212,8 +42353,11 @@
       <c r="F1353" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1354" spans="1:6">
+      <c r="G1353" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7">
       <c r="A1354" t="s">
         <v>1359</v>
       </c>
@@ -42232,8 +42376,11 @@
       <c r="F1354" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1355" spans="1:6">
+      <c r="G1354" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7">
       <c r="A1355" t="s">
         <v>1360</v>
       </c>
@@ -42252,8 +42399,11 @@
       <c r="F1355" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1356" spans="1:6">
+      <c r="G1355" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7">
       <c r="A1356" t="s">
         <v>1361</v>
       </c>
@@ -42272,8 +42422,11 @@
       <c r="F1356" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1357" spans="1:6">
+      <c r="G1356" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7">
       <c r="A1357" t="s">
         <v>1362</v>
       </c>
@@ -42292,8 +42445,11 @@
       <c r="F1357" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1358" spans="1:6">
+      <c r="G1357" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7">
       <c r="A1358" t="s">
         <v>1363</v>
       </c>
@@ -42312,8 +42468,11 @@
       <c r="F1358" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1359" spans="1:6">
+      <c r="G1358" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7">
       <c r="A1359" t="s">
         <v>1364</v>
       </c>
@@ -42332,8 +42491,11 @@
       <c r="F1359" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1360" spans="1:6">
+      <c r="G1359" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7">
       <c r="A1360" t="s">
         <v>1365</v>
       </c>
@@ -42352,8 +42514,11 @@
       <c r="F1360" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1361" spans="1:6">
+      <c r="G1360" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7">
       <c r="A1361" t="s">
         <v>1366</v>
       </c>
@@ -42372,8 +42537,11 @@
       <c r="F1361" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1362" spans="1:6">
+      <c r="G1361" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7">
       <c r="A1362" t="s">
         <v>1367</v>
       </c>
@@ -42392,8 +42560,11 @@
       <c r="F1362" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1363" spans="1:6">
+      <c r="G1362" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7">
       <c r="A1363" t="s">
         <v>1368</v>
       </c>
@@ -42412,8 +42583,11 @@
       <c r="F1363" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1364" spans="1:6">
+      <c r="G1363" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7">
       <c r="A1364" t="s">
         <v>1369</v>
       </c>
@@ -42432,8 +42606,11 @@
       <c r="F1364" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1365" spans="1:6">
+      <c r="G1364" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7">
       <c r="A1365" t="s">
         <v>1370</v>
       </c>
@@ -42452,8 +42629,11 @@
       <c r="F1365" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1366" spans="1:6">
+      <c r="G1365" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7">
       <c r="A1366" t="s">
         <v>1371</v>
       </c>
@@ -42472,8 +42652,11 @@
       <c r="F1366" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1367" spans="1:6">
+      <c r="G1366" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7">
       <c r="A1367" t="s">
         <v>1372</v>
       </c>
@@ -42492,8 +42675,11 @@
       <c r="F1367" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1368" spans="1:6">
+      <c r="G1367" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7">
       <c r="A1368" t="s">
         <v>1373</v>
       </c>
@@ -42512,8 +42698,11 @@
       <c r="F1368" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1369" spans="1:6">
+      <c r="G1368" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7">
       <c r="A1369" t="s">
         <v>1374</v>
       </c>
@@ -42532,8 +42721,11 @@
       <c r="F1369" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1370" spans="1:6">
+      <c r="G1369" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7">
       <c r="A1370" t="s">
         <v>1375</v>
       </c>
@@ -42552,8 +42744,11 @@
       <c r="F1370" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1371" spans="1:6">
+      <c r="G1370" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7">
       <c r="A1371" t="s">
         <v>1376</v>
       </c>
@@ -42572,8 +42767,11 @@
       <c r="F1371" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1372" spans="1:6">
+      <c r="G1371" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7">
       <c r="A1372" t="s">
         <v>1377</v>
       </c>
@@ -42592,8 +42790,11 @@
       <c r="F1372" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1373" spans="1:6">
+      <c r="G1372" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7">
       <c r="A1373" t="s">
         <v>1378</v>
       </c>
@@ -42612,8 +42813,11 @@
       <c r="F1373" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1374" spans="1:6">
+      <c r="G1373" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7">
       <c r="A1374" t="s">
         <v>1379</v>
       </c>
@@ -42632,8 +42836,11 @@
       <c r="F1374" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1375" spans="1:6">
+      <c r="G1374" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7">
       <c r="A1375" t="s">
         <v>1380</v>
       </c>
@@ -42652,8 +42859,11 @@
       <c r="F1375" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1376" spans="1:6">
+      <c r="G1375" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7">
       <c r="A1376" t="s">
         <v>1381</v>
       </c>
@@ -42672,8 +42882,11 @@
       <c r="F1376" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1377" spans="1:6">
+      <c r="G1376" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:7">
       <c r="A1377" t="s">
         <v>1382</v>
       </c>
@@ -42692,8 +42905,11 @@
       <c r="F1377" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1378" spans="1:6">
+      <c r="G1377" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:7">
       <c r="A1378" t="s">
         <v>1383</v>
       </c>
@@ -42712,8 +42928,11 @@
       <c r="F1378" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1379" spans="1:6">
+      <c r="G1378" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:7">
       <c r="A1379" t="s">
         <v>1384</v>
       </c>
@@ -42732,8 +42951,11 @@
       <c r="F1379" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1380" spans="1:6">
+      <c r="G1379" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:7">
       <c r="A1380" t="s">
         <v>1385</v>
       </c>
@@ -42752,8 +42974,11 @@
       <c r="F1380" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1381" spans="1:6">
+      <c r="G1380" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:7">
       <c r="A1381" t="s">
         <v>1386</v>
       </c>
@@ -42772,8 +42997,11 @@
       <c r="F1381" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1382" spans="1:6">
+      <c r="G1381" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:7">
       <c r="A1382" t="s">
         <v>1387</v>
       </c>
@@ -42792,8 +43020,11 @@
       <c r="F1382" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1383" spans="1:6">
+      <c r="G1382" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:7">
       <c r="A1383" t="s">
         <v>1388</v>
       </c>
@@ -42812,8 +43043,11 @@
       <c r="F1383" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1384" spans="1:6">
+      <c r="G1383" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7">
       <c r="A1384" t="s">
         <v>1389</v>
       </c>
@@ -42832,8 +43066,11 @@
       <c r="F1384" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1385" spans="1:6">
+      <c r="G1384" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:7">
       <c r="A1385" t="s">
         <v>1390</v>
       </c>
@@ -42852,8 +43089,11 @@
       <c r="F1385" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1386" spans="1:6">
+      <c r="G1385" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7">
       <c r="A1386" t="s">
         <v>1391</v>
       </c>
@@ -42872,8 +43112,11 @@
       <c r="F1386" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1387" spans="1:6">
+      <c r="G1386" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7">
       <c r="A1387" t="s">
         <v>1392</v>
       </c>
@@ -42892,8 +43135,11 @@
       <c r="F1387" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1388" spans="1:6">
+      <c r="G1387" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7">
       <c r="A1388" t="s">
         <v>1393</v>
       </c>
@@ -42912,8 +43158,11 @@
       <c r="F1388" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1389" spans="1:6">
+      <c r="G1388" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7">
       <c r="A1389" t="s">
         <v>1394</v>
       </c>
@@ -42932,8 +43181,11 @@
       <c r="F1389" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1390" spans="1:6">
+      <c r="G1389" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7">
       <c r="A1390" t="s">
         <v>1395</v>
       </c>
@@ -42952,8 +43204,11 @@
       <c r="F1390" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1391" spans="1:6">
+      <c r="G1390" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7">
       <c r="A1391" t="s">
         <v>1396</v>
       </c>
@@ -42972,8 +43227,11 @@
       <c r="F1391" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1392" spans="1:6">
+      <c r="G1391" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:7">
       <c r="A1392" t="s">
         <v>1397</v>
       </c>
@@ -42992,8 +43250,11 @@
       <c r="F1392" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1393" spans="1:6">
+      <c r="G1392" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7">
       <c r="A1393" t="s">
         <v>1398</v>
       </c>
@@ -43012,8 +43273,11 @@
       <c r="F1393" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1394" spans="1:6">
+      <c r="G1393" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7">
       <c r="A1394" t="s">
         <v>1399</v>
       </c>
@@ -43032,8 +43296,11 @@
       <c r="F1394" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1395" spans="1:6">
+      <c r="G1394" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7">
       <c r="A1395" t="s">
         <v>1400</v>
       </c>
@@ -43052,8 +43319,11 @@
       <c r="F1395" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1396" spans="1:6">
+      <c r="G1395" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7">
       <c r="A1396" t="s">
         <v>1401</v>
       </c>
@@ -43072,8 +43342,11 @@
       <c r="F1396" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1397" spans="1:6">
+      <c r="G1396" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:7">
       <c r="A1397" t="s">
         <v>1402</v>
       </c>
@@ -43092,8 +43365,11 @@
       <c r="F1397" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1398" spans="1:6">
+      <c r="G1397" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7">
       <c r="A1398" t="s">
         <v>1403</v>
       </c>
@@ -43112,8 +43388,11 @@
       <c r="F1398" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1399" spans="1:6">
+      <c r="G1398" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7">
       <c r="A1399" t="s">
         <v>1404</v>
       </c>
@@ -43132,8 +43411,11 @@
       <c r="F1399" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1400" spans="1:6">
+      <c r="G1399" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7">
       <c r="A1400" t="s">
         <v>1405</v>
       </c>
@@ -43152,8 +43434,11 @@
       <c r="F1400" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1401" spans="1:6">
+      <c r="G1400" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7">
       <c r="A1401" t="s">
         <v>1406</v>
       </c>
@@ -43172,8 +43457,11 @@
       <c r="F1401" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1402" spans="1:6">
+      <c r="G1401" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7">
       <c r="A1402" t="s">
         <v>1407</v>
       </c>
@@ -43192,8 +43480,11 @@
       <c r="F1402" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1403" spans="1:6">
+      <c r="G1402" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7">
       <c r="A1403" t="s">
         <v>1408</v>
       </c>
@@ -43212,8 +43503,11 @@
       <c r="F1403" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1404" spans="1:6">
+      <c r="G1403" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7">
       <c r="A1404" t="s">
         <v>1409</v>
       </c>
@@ -43232,8 +43526,11 @@
       <c r="F1404" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1405" spans="1:6">
+      <c r="G1404" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7">
       <c r="A1405" t="s">
         <v>1410</v>
       </c>
@@ -43252,8 +43549,11 @@
       <c r="F1405" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1406" spans="1:6">
+      <c r="G1405" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7">
       <c r="A1406" t="s">
         <v>1411</v>
       </c>
@@ -43272,8 +43572,11 @@
       <c r="F1406" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1407" spans="1:6">
+      <c r="G1406" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7">
       <c r="A1407" t="s">
         <v>1412</v>
       </c>
@@ -43292,8 +43595,11 @@
       <c r="F1407" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1408" spans="1:6">
+      <c r="G1407" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7">
       <c r="A1408" t="s">
         <v>1413</v>
       </c>
@@ -43312,8 +43618,11 @@
       <c r="F1408" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1409" spans="1:6">
+      <c r="G1408" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7">
       <c r="A1409" t="s">
         <v>1414</v>
       </c>
@@ -43332,8 +43641,11 @@
       <c r="F1409" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1410" spans="1:6">
+      <c r="G1409" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7">
       <c r="A1410" t="s">
         <v>1415</v>
       </c>
@@ -43352,8 +43664,11 @@
       <c r="F1410" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1411" spans="1:6">
+      <c r="G1410" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7">
       <c r="A1411" t="s">
         <v>1416</v>
       </c>
@@ -43372,8 +43687,11 @@
       <c r="F1411" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1412" spans="1:6">
+      <c r="G1411" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7">
       <c r="A1412" t="s">
         <v>1417</v>
       </c>
@@ -43392,8 +43710,11 @@
       <c r="F1412" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1413" spans="1:6">
+      <c r="G1412" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7">
       <c r="A1413" t="s">
         <v>1418</v>
       </c>
@@ -43412,8 +43733,11 @@
       <c r="F1413" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1414" spans="1:6">
+      <c r="G1413" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7">
       <c r="A1414" t="s">
         <v>1419</v>
       </c>
@@ -43432,8 +43756,11 @@
       <c r="F1414" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1415" spans="1:6">
+      <c r="G1414" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7">
       <c r="A1415" t="s">
         <v>1420</v>
       </c>
@@ -43452,8 +43779,11 @@
       <c r="F1415" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1416" spans="1:6">
+      <c r="G1415" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7">
       <c r="A1416" t="s">
         <v>1421</v>
       </c>
@@ -43472,8 +43802,11 @@
       <c r="F1416" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1417" spans="1:6">
+      <c r="G1416" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7">
       <c r="A1417" t="s">
         <v>1422</v>
       </c>
@@ -43492,8 +43825,11 @@
       <c r="F1417" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1418" spans="1:6">
+      <c r="G1417" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7">
       <c r="A1418" t="s">
         <v>1423</v>
       </c>
@@ -43512,8 +43848,11 @@
       <c r="F1418" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1419" spans="1:6">
+      <c r="G1418" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7">
       <c r="A1419" t="s">
         <v>1424</v>
       </c>
@@ -43532,8 +43871,11 @@
       <c r="F1419" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1420" spans="1:6">
+      <c r="G1419" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7">
       <c r="A1420" t="s">
         <v>1425</v>
       </c>
@@ -43552,8 +43894,11 @@
       <c r="F1420" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1421" spans="1:6">
+      <c r="G1420" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7">
       <c r="A1421" t="s">
         <v>1426</v>
       </c>
@@ -43572,8 +43917,11 @@
       <c r="F1421" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1422" spans="1:6">
+      <c r="G1421" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7">
       <c r="A1422" t="s">
         <v>1427</v>
       </c>
@@ -43592,8 +43940,11 @@
       <c r="F1422" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1423" spans="1:6">
+      <c r="G1422" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7">
       <c r="A1423" t="s">
         <v>1428</v>
       </c>
@@ -43612,8 +43963,11 @@
       <c r="F1423" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1424" spans="1:6">
+      <c r="G1423" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7">
       <c r="A1424" t="s">
         <v>1429</v>
       </c>
@@ -43632,8 +43986,11 @@
       <c r="F1424" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1425" spans="1:6">
+      <c r="G1424" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7">
       <c r="A1425" t="s">
         <v>1430</v>
       </c>
@@ -43652,8 +44009,11 @@
       <c r="F1425" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1426" spans="1:6">
+      <c r="G1425" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7">
       <c r="A1426" t="s">
         <v>1431</v>
       </c>
@@ -43672,8 +44032,11 @@
       <c r="F1426" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1427" spans="1:6">
+      <c r="G1426" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7">
       <c r="A1427" t="s">
         <v>1432</v>
       </c>
@@ -43692,8 +44055,11 @@
       <c r="F1427" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1428" spans="1:6">
+      <c r="G1427" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7">
       <c r="A1428" t="s">
         <v>1433</v>
       </c>
@@ -43712,8 +44078,11 @@
       <c r="F1428" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1429" spans="1:6">
+      <c r="G1428" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7">
       <c r="A1429" t="s">
         <v>1434</v>
       </c>
@@ -43732,8 +44101,11 @@
       <c r="F1429" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1430" spans="1:6">
+      <c r="G1429" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7">
       <c r="A1430" t="s">
         <v>1435</v>
       </c>
@@ -43752,8 +44124,11 @@
       <c r="F1430" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1431" spans="1:6">
+      <c r="G1430" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7">
       <c r="A1431" t="s">
         <v>1436</v>
       </c>
@@ -43772,8 +44147,11 @@
       <c r="F1431" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1432" spans="1:6">
+      <c r="G1431" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7">
       <c r="A1432" t="s">
         <v>1437</v>
       </c>
@@ -43792,8 +44170,11 @@
       <c r="F1432" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1433" spans="1:6">
+      <c r="G1432" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7">
       <c r="A1433" t="s">
         <v>1438</v>
       </c>
@@ -43812,8 +44193,11 @@
       <c r="F1433" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1434" spans="1:6">
+      <c r="G1433" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7">
       <c r="A1434" t="s">
         <v>1439</v>
       </c>
@@ -43832,8 +44216,11 @@
       <c r="F1434" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1435" spans="1:6">
+      <c r="G1434" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7">
       <c r="A1435" t="s">
         <v>1440</v>
       </c>
@@ -43852,8 +44239,11 @@
       <c r="F1435" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1436" spans="1:6">
+      <c r="G1435" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7">
       <c r="A1436" t="s">
         <v>1441</v>
       </c>
@@ -43872,8 +44262,11 @@
       <c r="F1436" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1437" spans="1:6">
+      <c r="G1436" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7">
       <c r="A1437" t="s">
         <v>1442</v>
       </c>
@@ -43892,8 +44285,11 @@
       <c r="F1437" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1438" spans="1:6">
+      <c r="G1437" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7">
       <c r="A1438" t="s">
         <v>1443</v>
       </c>
@@ -43912,8 +44308,11 @@
       <c r="F1438" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1439" spans="1:6">
+      <c r="G1438" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7">
       <c r="A1439" t="s">
         <v>1444</v>
       </c>
@@ -43932,8 +44331,11 @@
       <c r="F1439" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1440" spans="1:6">
+      <c r="G1439" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7">
       <c r="A1440" t="s">
         <v>1445</v>
       </c>
@@ -43952,8 +44354,11 @@
       <c r="F1440" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1441" spans="1:6">
+      <c r="G1440" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7">
       <c r="A1441" t="s">
         <v>1446</v>
       </c>
@@ -43972,8 +44377,11 @@
       <c r="F1441" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1442" spans="1:6">
+      <c r="G1441" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7">
       <c r="A1442" t="s">
         <v>1447</v>
       </c>
@@ -43992,8 +44400,11 @@
       <c r="F1442" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1443" spans="1:6">
+      <c r="G1442" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7">
       <c r="A1443" t="s">
         <v>1448</v>
       </c>
@@ -44012,8 +44423,11 @@
       <c r="F1443" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1444" spans="1:6">
+      <c r="G1443" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7">
       <c r="A1444" t="s">
         <v>1449</v>
       </c>
@@ -44032,8 +44446,11 @@
       <c r="F1444" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1445" spans="1:6">
+      <c r="G1444" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7">
       <c r="A1445" t="s">
         <v>1450</v>
       </c>
@@ -44052,8 +44469,11 @@
       <c r="F1445" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1446" spans="1:6">
+      <c r="G1445" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7">
       <c r="A1446" t="s">
         <v>1451</v>
       </c>
@@ -44072,8 +44492,11 @@
       <c r="F1446" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1447" spans="1:6">
+      <c r="G1446" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7">
       <c r="A1447" t="s">
         <v>1452</v>
       </c>
@@ -44092,8 +44515,11 @@
       <c r="F1447" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1448" spans="1:6">
+      <c r="G1447" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7">
       <c r="A1448" t="s">
         <v>1453</v>
       </c>
@@ -44112,8 +44538,11 @@
       <c r="F1448" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1449" spans="1:6">
+      <c r="G1448" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7">
       <c r="A1449" t="s">
         <v>1454</v>
       </c>
@@ -44132,8 +44561,11 @@
       <c r="F1449" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1450" spans="1:6">
+      <c r="G1449" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7">
       <c r="A1450" t="s">
         <v>1455</v>
       </c>
@@ -44152,8 +44584,11 @@
       <c r="F1450" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1451" spans="1:6">
+      <c r="G1450" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7">
       <c r="A1451" t="s">
         <v>1456</v>
       </c>
@@ -44172,8 +44607,11 @@
       <c r="F1451" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1452" spans="1:6">
+      <c r="G1451" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7">
       <c r="A1452" t="s">
         <v>1457</v>
       </c>
@@ -44192,8 +44630,11 @@
       <c r="F1452" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1453" spans="1:6">
+      <c r="G1452" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7">
       <c r="A1453" t="s">
         <v>1458</v>
       </c>
@@ -44213,7 +44654,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1454" spans="1:6">
+    <row r="1454" spans="1:7">
       <c r="A1454" t="s">
         <v>1459</v>
       </c>
@@ -44233,7 +44674,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1455" spans="1:6">
+    <row r="1455" spans="1:7">
       <c r="A1455" t="s">
         <v>1460</v>
       </c>
@@ -44253,7 +44694,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1456" spans="1:6">
+    <row r="1456" spans="1:7">
       <c r="A1456" t="s">
         <v>1461</v>
       </c>

--- a/mainSecond/prophages2.xlsx
+++ b/mainSecond/prophages2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9613" uniqueCount="3616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9783" uniqueCount="3616">
   <si>
     <t>accessionNumbers</t>
   </si>
@@ -44653,6 +44653,9 @@
       <c r="F1453" t="s">
         <v>3614</v>
       </c>
+      <c r="G1453" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1454" spans="1:7">
       <c r="A1454" t="s">
@@ -44673,6 +44676,9 @@
       <c r="F1454" t="s">
         <v>3614</v>
       </c>
+      <c r="G1454" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1455" spans="1:7">
       <c r="A1455" t="s">
@@ -44693,6 +44699,9 @@
       <c r="F1455" t="s">
         <v>3614</v>
       </c>
+      <c r="G1455" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1456" spans="1:7">
       <c r="A1456" t="s">
@@ -44713,8 +44722,11 @@
       <c r="F1456" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1457" spans="1:6">
+      <c r="G1456" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7">
       <c r="A1457" t="s">
         <v>1462</v>
       </c>
@@ -44733,8 +44745,11 @@
       <c r="F1457" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1458" spans="1:6">
+      <c r="G1457" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7">
       <c r="A1458" t="s">
         <v>1463</v>
       </c>
@@ -44753,8 +44768,11 @@
       <c r="F1458" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1459" spans="1:6">
+      <c r="G1458" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7">
       <c r="A1459" t="s">
         <v>1464</v>
       </c>
@@ -44773,8 +44791,11 @@
       <c r="F1459" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1460" spans="1:6">
+      <c r="G1459" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7">
       <c r="A1460" t="s">
         <v>1465</v>
       </c>
@@ -44793,8 +44814,11 @@
       <c r="F1460" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1461" spans="1:6">
+      <c r="G1460" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:7">
       <c r="A1461" t="s">
         <v>1466</v>
       </c>
@@ -44813,8 +44837,11 @@
       <c r="F1461" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1462" spans="1:6">
+      <c r="G1461" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:7">
       <c r="A1462" t="s">
         <v>1467</v>
       </c>
@@ -44833,8 +44860,11 @@
       <c r="F1462" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1463" spans="1:6">
+      <c r="G1462" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7">
       <c r="A1463" t="s">
         <v>1468</v>
       </c>
@@ -44853,8 +44883,11 @@
       <c r="F1463" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1464" spans="1:6">
+      <c r="G1463" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7">
       <c r="A1464" t="s">
         <v>1469</v>
       </c>
@@ -44873,8 +44906,11 @@
       <c r="F1464" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1465" spans="1:6">
+      <c r="G1464" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7">
       <c r="A1465" t="s">
         <v>1470</v>
       </c>
@@ -44893,8 +44929,11 @@
       <c r="F1465" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1466" spans="1:6">
+      <c r="G1465" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7">
       <c r="A1466" t="s">
         <v>1471</v>
       </c>
@@ -44913,8 +44952,11 @@
       <c r="F1466" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1467" spans="1:6">
+      <c r="G1466" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7">
       <c r="A1467" t="s">
         <v>1472</v>
       </c>
@@ -44933,8 +44975,11 @@
       <c r="F1467" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1468" spans="1:6">
+      <c r="G1467" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7">
       <c r="A1468" t="s">
         <v>1473</v>
       </c>
@@ -44953,8 +44998,11 @@
       <c r="F1468" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1469" spans="1:6">
+      <c r="G1468" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7">
       <c r="A1469" t="s">
         <v>1474</v>
       </c>
@@ -44973,8 +45021,11 @@
       <c r="F1469" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1470" spans="1:6">
+      <c r="G1469" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7">
       <c r="A1470" t="s">
         <v>1475</v>
       </c>
@@ -44993,8 +45044,11 @@
       <c r="F1470" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1471" spans="1:6">
+      <c r="G1470" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7">
       <c r="A1471" t="s">
         <v>1476</v>
       </c>
@@ -45013,8 +45067,11 @@
       <c r="F1471" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1472" spans="1:6">
+      <c r="G1471" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7">
       <c r="A1472" t="s">
         <v>1477</v>
       </c>
@@ -45033,8 +45090,11 @@
       <c r="F1472" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1473" spans="1:6">
+      <c r="G1472" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7">
       <c r="A1473" t="s">
         <v>1478</v>
       </c>
@@ -45053,8 +45113,11 @@
       <c r="F1473" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1474" spans="1:6">
+      <c r="G1473" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7">
       <c r="A1474" t="s">
         <v>1479</v>
       </c>
@@ -45073,8 +45136,11 @@
       <c r="F1474" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1475" spans="1:6">
+      <c r="G1474" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7">
       <c r="A1475" t="s">
         <v>1480</v>
       </c>
@@ -45093,8 +45159,11 @@
       <c r="F1475" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1476" spans="1:6">
+      <c r="G1475" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7">
       <c r="A1476" t="s">
         <v>1481</v>
       </c>
@@ -45113,8 +45182,11 @@
       <c r="F1476" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1477" spans="1:6">
+      <c r="G1476" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7">
       <c r="A1477" t="s">
         <v>1482</v>
       </c>
@@ -45133,8 +45205,11 @@
       <c r="F1477" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1478" spans="1:6">
+      <c r="G1477" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7">
       <c r="A1478" t="s">
         <v>1483</v>
       </c>
@@ -45153,8 +45228,11 @@
       <c r="F1478" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1479" spans="1:6">
+      <c r="G1478" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7">
       <c r="A1479" t="s">
         <v>1484</v>
       </c>
@@ -45173,8 +45251,11 @@
       <c r="F1479" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1480" spans="1:6">
+      <c r="G1479" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7">
       <c r="A1480" t="s">
         <v>1485</v>
       </c>
@@ -45193,8 +45274,11 @@
       <c r="F1480" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1481" spans="1:6">
+      <c r="G1480" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7">
       <c r="A1481" t="s">
         <v>1486</v>
       </c>
@@ -45213,8 +45297,11 @@
       <c r="F1481" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1482" spans="1:6">
+      <c r="G1481" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7">
       <c r="A1482" t="s">
         <v>1487</v>
       </c>
@@ -45233,8 +45320,11 @@
       <c r="F1482" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1483" spans="1:6">
+      <c r="G1482" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7">
       <c r="A1483" t="s">
         <v>1488</v>
       </c>
@@ -45253,8 +45343,11 @@
       <c r="F1483" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1484" spans="1:6">
+      <c r="G1483" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7">
       <c r="A1484" t="s">
         <v>1489</v>
       </c>
@@ -45273,8 +45366,11 @@
       <c r="F1484" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1485" spans="1:6">
+      <c r="G1484" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7">
       <c r="A1485" t="s">
         <v>1490</v>
       </c>
@@ -45293,8 +45389,11 @@
       <c r="F1485" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1486" spans="1:6">
+      <c r="G1485" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7">
       <c r="A1486" t="s">
         <v>1491</v>
       </c>
@@ -45313,8 +45412,11 @@
       <c r="F1486" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1487" spans="1:6">
+      <c r="G1486" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7">
       <c r="A1487" t="s">
         <v>1492</v>
       </c>
@@ -45333,8 +45435,11 @@
       <c r="F1487" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1488" spans="1:6">
+      <c r="G1487" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7">
       <c r="A1488" t="s">
         <v>1493</v>
       </c>
@@ -45353,8 +45458,11 @@
       <c r="F1488" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1489" spans="1:6">
+      <c r="G1488" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7">
       <c r="A1489" t="s">
         <v>1494</v>
       </c>
@@ -45373,8 +45481,11 @@
       <c r="F1489" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1490" spans="1:6">
+      <c r="G1489" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7">
       <c r="A1490" t="s">
         <v>1495</v>
       </c>
@@ -45393,8 +45504,11 @@
       <c r="F1490" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1491" spans="1:6">
+      <c r="G1490" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7">
       <c r="A1491" t="s">
         <v>1496</v>
       </c>
@@ -45413,8 +45527,11 @@
       <c r="F1491" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1492" spans="1:6">
+      <c r="G1491" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7">
       <c r="A1492" t="s">
         <v>1497</v>
       </c>
@@ -45433,8 +45550,11 @@
       <c r="F1492" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1493" spans="1:6">
+      <c r="G1492" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7">
       <c r="A1493" t="s">
         <v>1498</v>
       </c>
@@ -45453,8 +45573,11 @@
       <c r="F1493" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1494" spans="1:6">
+      <c r="G1493" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7">
       <c r="A1494" t="s">
         <v>1499</v>
       </c>
@@ -45473,8 +45596,11 @@
       <c r="F1494" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1495" spans="1:6">
+      <c r="G1494" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7">
       <c r="A1495" t="s">
         <v>1500</v>
       </c>
@@ -45493,8 +45619,11 @@
       <c r="F1495" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1496" spans="1:6">
+      <c r="G1495" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7">
       <c r="A1496" t="s">
         <v>1501</v>
       </c>
@@ -45513,8 +45642,11 @@
       <c r="F1496" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1497" spans="1:6">
+      <c r="G1496" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7">
       <c r="A1497" t="s">
         <v>1502</v>
       </c>
@@ -45533,8 +45665,11 @@
       <c r="F1497" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1498" spans="1:6">
+      <c r="G1497" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7">
       <c r="A1498" t="s">
         <v>1503</v>
       </c>
@@ -45553,8 +45688,11 @@
       <c r="F1498" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1499" spans="1:6">
+      <c r="G1498" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7">
       <c r="A1499" t="s">
         <v>1504</v>
       </c>
@@ -45573,8 +45711,11 @@
       <c r="F1499" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1500" spans="1:6">
+      <c r="G1499" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7">
       <c r="A1500" t="s">
         <v>1505</v>
       </c>
@@ -45593,8 +45734,11 @@
       <c r="F1500" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1501" spans="1:6">
+      <c r="G1500" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7">
       <c r="A1501" t="s">
         <v>1506</v>
       </c>
@@ -45613,8 +45757,11 @@
       <c r="F1501" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1502" spans="1:6">
+      <c r="G1501" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7">
       <c r="A1502" t="s">
         <v>1507</v>
       </c>
@@ -45633,8 +45780,11 @@
       <c r="F1502" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1503" spans="1:6">
+      <c r="G1502" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7">
       <c r="A1503" t="s">
         <v>1508</v>
       </c>
@@ -45653,8 +45803,11 @@
       <c r="F1503" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1504" spans="1:6">
+      <c r="G1503" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:7">
       <c r="A1504" t="s">
         <v>1509</v>
       </c>
@@ -45673,8 +45826,11 @@
       <c r="F1504" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1505" spans="1:6">
+      <c r="G1504" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7">
       <c r="A1505" t="s">
         <v>1510</v>
       </c>
@@ -45693,8 +45849,11 @@
       <c r="F1505" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1506" spans="1:6">
+      <c r="G1505" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:7">
       <c r="A1506" t="s">
         <v>1511</v>
       </c>
@@ -45713,8 +45872,11 @@
       <c r="F1506" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1507" spans="1:6">
+      <c r="G1506" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:7">
       <c r="A1507" t="s">
         <v>1512</v>
       </c>
@@ -45733,8 +45895,11 @@
       <c r="F1507" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1508" spans="1:6">
+      <c r="G1507" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7">
       <c r="A1508" t="s">
         <v>1513</v>
       </c>
@@ -45753,8 +45918,11 @@
       <c r="F1508" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1509" spans="1:6">
+      <c r="G1508" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:7">
       <c r="A1509" t="s">
         <v>1514</v>
       </c>
@@ -45773,8 +45941,11 @@
       <c r="F1509" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1510" spans="1:6">
+      <c r="G1509" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:7">
       <c r="A1510" t="s">
         <v>1515</v>
       </c>
@@ -45793,8 +45964,11 @@
       <c r="F1510" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1511" spans="1:6">
+      <c r="G1510" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:7">
       <c r="A1511" t="s">
         <v>1516</v>
       </c>
@@ -45813,8 +45987,11 @@
       <c r="F1511" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1512" spans="1:6">
+      <c r="G1511" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:7">
       <c r="A1512" t="s">
         <v>1517</v>
       </c>
@@ -45833,8 +46010,11 @@
       <c r="F1512" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1513" spans="1:6">
+      <c r="G1512" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:7">
       <c r="A1513" t="s">
         <v>1518</v>
       </c>
@@ -45853,8 +46033,11 @@
       <c r="F1513" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1514" spans="1:6">
+      <c r="G1513" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:7">
       <c r="A1514" t="s">
         <v>1519</v>
       </c>
@@ -45873,8 +46056,11 @@
       <c r="F1514" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1515" spans="1:6">
+      <c r="G1514" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:7">
       <c r="A1515" t="s">
         <v>1520</v>
       </c>
@@ -45893,8 +46079,11 @@
       <c r="F1515" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1516" spans="1:6">
+      <c r="G1515" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:7">
       <c r="A1516" t="s">
         <v>1521</v>
       </c>
@@ -45913,8 +46102,11 @@
       <c r="F1516" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1517" spans="1:6">
+      <c r="G1516" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:7">
       <c r="A1517" t="s">
         <v>1522</v>
       </c>
@@ -45933,8 +46125,11 @@
       <c r="F1517" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1518" spans="1:6">
+      <c r="G1517" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:7">
       <c r="A1518" t="s">
         <v>1523</v>
       </c>
@@ -45953,8 +46148,11 @@
       <c r="F1518" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1519" spans="1:6">
+      <c r="G1518" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:7">
       <c r="A1519" t="s">
         <v>1524</v>
       </c>
@@ -45973,8 +46171,11 @@
       <c r="F1519" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1520" spans="1:6">
+      <c r="G1519" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:7">
       <c r="A1520" t="s">
         <v>1525</v>
       </c>
@@ -45993,8 +46194,11 @@
       <c r="F1520" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1521" spans="1:6">
+      <c r="G1520" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7">
       <c r="A1521" t="s">
         <v>1526</v>
       </c>
@@ -46013,8 +46217,11 @@
       <c r="F1521" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1522" spans="1:6">
+      <c r="G1521" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7">
       <c r="A1522" t="s">
         <v>1527</v>
       </c>
@@ -46033,8 +46240,11 @@
       <c r="F1522" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1523" spans="1:6">
+      <c r="G1522" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7">
       <c r="A1523" t="s">
         <v>1528</v>
       </c>
@@ -46053,8 +46263,11 @@
       <c r="F1523" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1524" spans="1:6">
+      <c r="G1523" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7">
       <c r="A1524" t="s">
         <v>1529</v>
       </c>
@@ -46073,8 +46286,11 @@
       <c r="F1524" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1525" spans="1:6">
+      <c r="G1524" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7">
       <c r="A1525" t="s">
         <v>1530</v>
       </c>
@@ -46093,8 +46309,11 @@
       <c r="F1525" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1526" spans="1:6">
+      <c r="G1525" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7">
       <c r="A1526" t="s">
         <v>1531</v>
       </c>
@@ -46113,8 +46332,11 @@
       <c r="F1526" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1527" spans="1:6">
+      <c r="G1526" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7">
       <c r="A1527" t="s">
         <v>1532</v>
       </c>
@@ -46133,8 +46355,11 @@
       <c r="F1527" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1528" spans="1:6">
+      <c r="G1527" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7">
       <c r="A1528" t="s">
         <v>1533</v>
       </c>
@@ -46153,8 +46378,11 @@
       <c r="F1528" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1529" spans="1:6">
+      <c r="G1528" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7">
       <c r="A1529" t="s">
         <v>1534</v>
       </c>
@@ -46173,8 +46401,11 @@
       <c r="F1529" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1530" spans="1:6">
+      <c r="G1529" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7">
       <c r="A1530" t="s">
         <v>1535</v>
       </c>
@@ -46193,8 +46424,11 @@
       <c r="F1530" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1531" spans="1:6">
+      <c r="G1530" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7">
       <c r="A1531" t="s">
         <v>1536</v>
       </c>
@@ -46213,8 +46447,11 @@
       <c r="F1531" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1532" spans="1:6">
+      <c r="G1531" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7">
       <c r="A1532" t="s">
         <v>1537</v>
       </c>
@@ -46233,8 +46470,11 @@
       <c r="F1532" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1533" spans="1:6">
+      <c r="G1532" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7">
       <c r="A1533" t="s">
         <v>1538</v>
       </c>
@@ -46253,8 +46493,11 @@
       <c r="F1533" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1534" spans="1:6">
+      <c r="G1533" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7">
       <c r="A1534" t="s">
         <v>1539</v>
       </c>
@@ -46273,8 +46516,11 @@
       <c r="F1534" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1535" spans="1:6">
+      <c r="G1534" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:7">
       <c r="A1535" t="s">
         <v>1540</v>
       </c>
@@ -46293,8 +46539,11 @@
       <c r="F1535" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1536" spans="1:6">
+      <c r="G1535" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7">
       <c r="A1536" t="s">
         <v>1541</v>
       </c>
@@ -46313,8 +46562,11 @@
       <c r="F1536" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1537" spans="1:6">
+      <c r="G1536" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7">
       <c r="A1537" t="s">
         <v>1542</v>
       </c>
@@ -46333,8 +46585,11 @@
       <c r="F1537" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1538" spans="1:6">
+      <c r="G1537" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7">
       <c r="A1538" t="s">
         <v>1543</v>
       </c>
@@ -46353,8 +46608,11 @@
       <c r="F1538" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1539" spans="1:6">
+      <c r="G1538" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:7">
       <c r="A1539" t="s">
         <v>1544</v>
       </c>
@@ -46373,8 +46631,11 @@
       <c r="F1539" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1540" spans="1:6">
+      <c r="G1539" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7">
       <c r="A1540" t="s">
         <v>1545</v>
       </c>
@@ -46393,8 +46654,11 @@
       <c r="F1540" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1541" spans="1:6">
+      <c r="G1540" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:7">
       <c r="A1541" t="s">
         <v>1546</v>
       </c>
@@ -46413,8 +46677,11 @@
       <c r="F1541" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1542" spans="1:6">
+      <c r="G1541" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7">
       <c r="A1542" t="s">
         <v>1547</v>
       </c>
@@ -46433,8 +46700,11 @@
       <c r="F1542" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1543" spans="1:6">
+      <c r="G1542" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7">
       <c r="A1543" t="s">
         <v>1548</v>
       </c>
@@ -46453,8 +46723,11 @@
       <c r="F1543" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1544" spans="1:6">
+      <c r="G1543" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7">
       <c r="A1544" t="s">
         <v>1549</v>
       </c>
@@ -46473,8 +46746,11 @@
       <c r="F1544" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1545" spans="1:6">
+      <c r="G1544" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:7">
       <c r="A1545" t="s">
         <v>1550</v>
       </c>
@@ -46493,8 +46769,11 @@
       <c r="F1545" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1546" spans="1:6">
+      <c r="G1545" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7">
       <c r="A1546" t="s">
         <v>1551</v>
       </c>
@@ -46513,8 +46792,11 @@
       <c r="F1546" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1547" spans="1:6">
+      <c r="G1546" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:7">
       <c r="A1547" t="s">
         <v>1552</v>
       </c>
@@ -46533,8 +46815,11 @@
       <c r="F1547" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1548" spans="1:6">
+      <c r="G1547" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7">
       <c r="A1548" t="s">
         <v>1553</v>
       </c>
@@ -46553,8 +46838,11 @@
       <c r="F1548" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1549" spans="1:6">
+      <c r="G1548" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7">
       <c r="A1549" t="s">
         <v>1554</v>
       </c>
@@ -46573,8 +46861,11 @@
       <c r="F1549" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1550" spans="1:6">
+      <c r="G1549" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:7">
       <c r="A1550" t="s">
         <v>1555</v>
       </c>
@@ -46593,8 +46884,11 @@
       <c r="F1550" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1551" spans="1:6">
+      <c r="G1550" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7">
       <c r="A1551" t="s">
         <v>1556</v>
       </c>
@@ -46613,8 +46907,11 @@
       <c r="F1551" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1552" spans="1:6">
+      <c r="G1551" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7">
       <c r="A1552" t="s">
         <v>1557</v>
       </c>
@@ -46633,8 +46930,11 @@
       <c r="F1552" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1553" spans="1:6">
+      <c r="G1552" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7">
       <c r="A1553" t="s">
         <v>1558</v>
       </c>
@@ -46653,8 +46953,11 @@
       <c r="F1553" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1554" spans="1:6">
+      <c r="G1553" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7">
       <c r="A1554" t="s">
         <v>1559</v>
       </c>
@@ -46673,8 +46976,11 @@
       <c r="F1554" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1555" spans="1:6">
+      <c r="G1554" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7">
       <c r="A1555" t="s">
         <v>1560</v>
       </c>
@@ -46693,8 +46999,11 @@
       <c r="F1555" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1556" spans="1:6">
+      <c r="G1555" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7">
       <c r="A1556" t="s">
         <v>1561</v>
       </c>
@@ -46713,8 +47022,11 @@
       <c r="F1556" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1557" spans="1:6">
+      <c r="G1556" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7">
       <c r="A1557" t="s">
         <v>1562</v>
       </c>
@@ -46733,8 +47045,11 @@
       <c r="F1557" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1558" spans="1:6">
+      <c r="G1557" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7">
       <c r="A1558" t="s">
         <v>1563</v>
       </c>
@@ -46753,8 +47068,11 @@
       <c r="F1558" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1559" spans="1:6">
+      <c r="G1558" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7">
       <c r="A1559" t="s">
         <v>1564</v>
       </c>
@@ -46773,8 +47091,11 @@
       <c r="F1559" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1560" spans="1:6">
+      <c r="G1559" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7">
       <c r="A1560" t="s">
         <v>1565</v>
       </c>
@@ -46793,8 +47114,11 @@
       <c r="F1560" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1561" spans="1:6">
+      <c r="G1560" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7">
       <c r="A1561" t="s">
         <v>1566</v>
       </c>
@@ -46813,8 +47137,11 @@
       <c r="F1561" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1562" spans="1:6">
+      <c r="G1561" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7">
       <c r="A1562" t="s">
         <v>1567</v>
       </c>
@@ -46833,8 +47160,11 @@
       <c r="F1562" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1563" spans="1:6">
+      <c r="G1562" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7">
       <c r="A1563" t="s">
         <v>1568</v>
       </c>
@@ -46853,8 +47183,11 @@
       <c r="F1563" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1564" spans="1:6">
+      <c r="G1563" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7">
       <c r="A1564" t="s">
         <v>1569</v>
       </c>
@@ -46873,8 +47206,11 @@
       <c r="F1564" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1565" spans="1:6">
+      <c r="G1564" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7">
       <c r="A1565" t="s">
         <v>1570</v>
       </c>
@@ -46893,8 +47229,11 @@
       <c r="F1565" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1566" spans="1:6">
+      <c r="G1565" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7">
       <c r="A1566" t="s">
         <v>1571</v>
       </c>
@@ -46913,8 +47252,11 @@
       <c r="F1566" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1567" spans="1:6">
+      <c r="G1566" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7">
       <c r="A1567" t="s">
         <v>1572</v>
       </c>
@@ -46933,8 +47275,11 @@
       <c r="F1567" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1568" spans="1:6">
+      <c r="G1567" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7">
       <c r="A1568" t="s">
         <v>1573</v>
       </c>
@@ -46953,8 +47298,11 @@
       <c r="F1568" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1569" spans="1:6">
+      <c r="G1568" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7">
       <c r="A1569" t="s">
         <v>1574</v>
       </c>
@@ -46973,8 +47321,11 @@
       <c r="F1569" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1570" spans="1:6">
+      <c r="G1569" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7">
       <c r="A1570" t="s">
         <v>1575</v>
       </c>
@@ -46993,8 +47344,11 @@
       <c r="F1570" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1571" spans="1:6">
+      <c r="G1570" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7">
       <c r="A1571" t="s">
         <v>1576</v>
       </c>
@@ -47013,8 +47367,11 @@
       <c r="F1571" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1572" spans="1:6">
+      <c r="G1571" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7">
       <c r="A1572" t="s">
         <v>1577</v>
       </c>
@@ -47033,8 +47390,11 @@
       <c r="F1572" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1573" spans="1:6">
+      <c r="G1572" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7">
       <c r="A1573" t="s">
         <v>1578</v>
       </c>
@@ -47053,8 +47413,11 @@
       <c r="F1573" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1574" spans="1:6">
+      <c r="G1573" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7">
       <c r="A1574" t="s">
         <v>1579</v>
       </c>
@@ -47073,8 +47436,11 @@
       <c r="F1574" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1575" spans="1:6">
+      <c r="G1574" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:7">
       <c r="A1575" t="s">
         <v>1580</v>
       </c>
@@ -47093,8 +47459,11 @@
       <c r="F1575" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1576" spans="1:6">
+      <c r="G1575" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7">
       <c r="A1576" t="s">
         <v>1581</v>
       </c>
@@ -47113,8 +47482,11 @@
       <c r="F1576" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1577" spans="1:6">
+      <c r="G1576" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7">
       <c r="A1577" t="s">
         <v>1582</v>
       </c>
@@ -47133,8 +47505,11 @@
       <c r="F1577" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1578" spans="1:6">
+      <c r="G1577" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:7">
       <c r="A1578" t="s">
         <v>1583</v>
       </c>
@@ -47153,8 +47528,11 @@
       <c r="F1578" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1579" spans="1:6">
+      <c r="G1578" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7">
       <c r="A1579" t="s">
         <v>1584</v>
       </c>
@@ -47173,8 +47551,11 @@
       <c r="F1579" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1580" spans="1:6">
+      <c r="G1579" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:7">
       <c r="A1580" t="s">
         <v>1585</v>
       </c>
@@ -47193,8 +47574,11 @@
       <c r="F1580" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1581" spans="1:6">
+      <c r="G1580" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:7">
       <c r="A1581" t="s">
         <v>1586</v>
       </c>
@@ -47213,8 +47597,11 @@
       <c r="F1581" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1582" spans="1:6">
+      <c r="G1581" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7">
       <c r="A1582" t="s">
         <v>1587</v>
       </c>
@@ -47233,8 +47620,11 @@
       <c r="F1582" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1583" spans="1:6">
+      <c r="G1582" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7">
       <c r="A1583" t="s">
         <v>1588</v>
       </c>
@@ -47253,8 +47643,11 @@
       <c r="F1583" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1584" spans="1:6">
+      <c r="G1583" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7">
       <c r="A1584" t="s">
         <v>1589</v>
       </c>
@@ -47273,8 +47666,11 @@
       <c r="F1584" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1585" spans="1:6">
+      <c r="G1584" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7">
       <c r="A1585" t="s">
         <v>1590</v>
       </c>
@@ -47293,8 +47689,11 @@
       <c r="F1585" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1586" spans="1:6">
+      <c r="G1585" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7">
       <c r="A1586" t="s">
         <v>1591</v>
       </c>
@@ -47313,8 +47712,11 @@
       <c r="F1586" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1587" spans="1:6">
+      <c r="G1586" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7">
       <c r="A1587" t="s">
         <v>1592</v>
       </c>
@@ -47333,8 +47735,11 @@
       <c r="F1587" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1588" spans="1:6">
+      <c r="G1587" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:7">
       <c r="A1588" t="s">
         <v>1593</v>
       </c>
@@ -47353,8 +47758,11 @@
       <c r="F1588" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1589" spans="1:6">
+      <c r="G1588" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:7">
       <c r="A1589" t="s">
         <v>1594</v>
       </c>
@@ -47373,8 +47781,11 @@
       <c r="F1589" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1590" spans="1:6">
+      <c r="G1589" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:7">
       <c r="A1590" t="s">
         <v>1595</v>
       </c>
@@ -47393,8 +47804,11 @@
       <c r="F1590" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1591" spans="1:6">
+      <c r="G1590" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:7">
       <c r="A1591" t="s">
         <v>1596</v>
       </c>
@@ -47413,8 +47827,11 @@
       <c r="F1591" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1592" spans="1:6">
+      <c r="G1591" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:7">
       <c r="A1592" t="s">
         <v>1597</v>
       </c>
@@ -47433,8 +47850,11 @@
       <c r="F1592" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1593" spans="1:6">
+      <c r="G1592" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:7">
       <c r="A1593" t="s">
         <v>1598</v>
       </c>
@@ -47453,8 +47873,11 @@
       <c r="F1593" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1594" spans="1:6">
+      <c r="G1593" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:7">
       <c r="A1594" t="s">
         <v>1599</v>
       </c>
@@ -47473,8 +47896,11 @@
       <c r="F1594" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1595" spans="1:6">
+      <c r="G1594" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7">
       <c r="A1595" t="s">
         <v>1600</v>
       </c>
@@ -47493,8 +47919,11 @@
       <c r="F1595" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1596" spans="1:6">
+      <c r="G1595" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7">
       <c r="A1596" t="s">
         <v>1601</v>
       </c>
@@ -47513,8 +47942,11 @@
       <c r="F1596" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1597" spans="1:6">
+      <c r="G1596" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7">
       <c r="A1597" t="s">
         <v>1602</v>
       </c>
@@ -47533,8 +47965,11 @@
       <c r="F1597" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1598" spans="1:6">
+      <c r="G1597" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7">
       <c r="A1598" t="s">
         <v>1603</v>
       </c>
@@ -47553,8 +47988,11 @@
       <c r="F1598" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1599" spans="1:6">
+      <c r="G1598" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7">
       <c r="A1599" t="s">
         <v>1604</v>
       </c>
@@ -47573,8 +48011,11 @@
       <c r="F1599" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1600" spans="1:6">
+      <c r="G1599" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:7">
       <c r="A1600" t="s">
         <v>1605</v>
       </c>
@@ -47593,8 +48034,11 @@
       <c r="F1600" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1601" spans="1:6">
+      <c r="G1600" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:7">
       <c r="A1601" t="s">
         <v>1606</v>
       </c>
@@ -47613,8 +48057,11 @@
       <c r="F1601" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1602" spans="1:6">
+      <c r="G1601" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:7">
       <c r="A1602" t="s">
         <v>1607</v>
       </c>
@@ -47633,8 +48080,11 @@
       <c r="F1602" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1603" spans="1:6">
+      <c r="G1602" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:7">
       <c r="A1603" t="s">
         <v>1608</v>
       </c>
@@ -47653,8 +48103,11 @@
       <c r="F1603" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1604" spans="1:6">
+      <c r="G1603" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:7">
       <c r="A1604" t="s">
         <v>1609</v>
       </c>
@@ -47673,8 +48126,11 @@
       <c r="F1604" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1605" spans="1:6">
+      <c r="G1604" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:7">
       <c r="A1605" t="s">
         <v>1610</v>
       </c>
@@ -47693,8 +48149,11 @@
       <c r="F1605" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1606" spans="1:6">
+      <c r="G1605" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:7">
       <c r="A1606" t="s">
         <v>1611</v>
       </c>
@@ -47713,8 +48172,11 @@
       <c r="F1606" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1607" spans="1:6">
+      <c r="G1606" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:7">
       <c r="A1607" t="s">
         <v>1612</v>
       </c>
@@ -47733,8 +48195,11 @@
       <c r="F1607" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1608" spans="1:6">
+      <c r="G1607" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:7">
       <c r="A1608" t="s">
         <v>1613</v>
       </c>
@@ -47753,8 +48218,11 @@
       <c r="F1608" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1609" spans="1:6">
+      <c r="G1608" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:7">
       <c r="A1609" t="s">
         <v>1614</v>
       </c>
@@ -47773,8 +48241,11 @@
       <c r="F1609" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1610" spans="1:6">
+      <c r="G1609" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:7">
       <c r="A1610" t="s">
         <v>1615</v>
       </c>
@@ -47793,8 +48264,11 @@
       <c r="F1610" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1611" spans="1:6">
+      <c r="G1610" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:7">
       <c r="A1611" t="s">
         <v>1616</v>
       </c>
@@ -47813,8 +48287,11 @@
       <c r="F1611" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1612" spans="1:6">
+      <c r="G1611" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:7">
       <c r="A1612" t="s">
         <v>1617</v>
       </c>
@@ -47833,8 +48310,11 @@
       <c r="F1612" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1613" spans="1:6">
+      <c r="G1612" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:7">
       <c r="A1613" t="s">
         <v>1618</v>
       </c>
@@ -47853,8 +48333,11 @@
       <c r="F1613" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1614" spans="1:6">
+      <c r="G1613" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:7">
       <c r="A1614" t="s">
         <v>1619</v>
       </c>
@@ -47873,8 +48356,11 @@
       <c r="F1614" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1615" spans="1:6">
+      <c r="G1614" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:7">
       <c r="A1615" t="s">
         <v>1620</v>
       </c>
@@ -47893,8 +48379,11 @@
       <c r="F1615" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1616" spans="1:6">
+      <c r="G1615" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:7">
       <c r="A1616" t="s">
         <v>1621</v>
       </c>
@@ -47913,8 +48402,11 @@
       <c r="F1616" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1617" spans="1:6">
+      <c r="G1616" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:7">
       <c r="A1617" t="s">
         <v>1622</v>
       </c>
@@ -47933,8 +48425,11 @@
       <c r="F1617" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1618" spans="1:6">
+      <c r="G1617" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:7">
       <c r="A1618" t="s">
         <v>1623</v>
       </c>
@@ -47953,8 +48448,11 @@
       <c r="F1618" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1619" spans="1:6">
+      <c r="G1618" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:7">
       <c r="A1619" t="s">
         <v>1624</v>
       </c>
@@ -47973,8 +48471,11 @@
       <c r="F1619" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1620" spans="1:6">
+      <c r="G1619" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:7">
       <c r="A1620" t="s">
         <v>1625</v>
       </c>
@@ -47993,8 +48494,11 @@
       <c r="F1620" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1621" spans="1:6">
+      <c r="G1620" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:7">
       <c r="A1621" t="s">
         <v>1626</v>
       </c>
@@ -48013,8 +48517,11 @@
       <c r="F1621" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1622" spans="1:6">
+      <c r="G1621" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:7">
       <c r="A1622" t="s">
         <v>1627</v>
       </c>
@@ -48033,8 +48540,11 @@
       <c r="F1622" t="s">
         <v>3614</v>
       </c>
-    </row>
-    <row r="1623" spans="1:6">
+      <c r="G1622" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:7">
       <c r="A1623" t="s">
         <v>1628</v>
       </c>
@@ -48054,7 +48564,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1624" spans="1:6">
+    <row r="1624" spans="1:7">
       <c r="A1624" t="s">
         <v>1629</v>
       </c>
@@ -48074,7 +48584,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1625" spans="1:6">
+    <row r="1625" spans="1:7">
       <c r="A1625" t="s">
         <v>1630</v>
       </c>
@@ -48094,7 +48604,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1626" spans="1:6">
+    <row r="1626" spans="1:7">
       <c r="A1626" t="s">
         <v>1631</v>
       </c>
@@ -48114,7 +48624,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1627" spans="1:6">
+    <row r="1627" spans="1:7">
       <c r="A1627" t="s">
         <v>1632</v>
       </c>
@@ -48134,7 +48644,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1628" spans="1:6">
+    <row r="1628" spans="1:7">
       <c r="A1628" t="s">
         <v>1633</v>
       </c>
@@ -48154,7 +48664,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1629" spans="1:6">
+    <row r="1629" spans="1:7">
       <c r="A1629" t="s">
         <v>1634</v>
       </c>
@@ -48174,7 +48684,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1630" spans="1:6">
+    <row r="1630" spans="1:7">
       <c r="A1630" t="s">
         <v>1635</v>
       </c>
@@ -48194,7 +48704,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1631" spans="1:6">
+    <row r="1631" spans="1:7">
       <c r="A1631" t="s">
         <v>1636</v>
       </c>
@@ -48214,7 +48724,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1632" spans="1:6">
+    <row r="1632" spans="1:7">
       <c r="A1632" t="s">
         <v>1637</v>
       </c>

--- a/mainSecond/prophages2.xlsx
+++ b/mainSecond/prophages2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9783" uniqueCount="3616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9793" uniqueCount="3616">
   <si>
     <t>accessionNumbers</t>
   </si>
@@ -15789,7 +15789,7 @@
         <v>3614</v>
       </c>
       <c r="G198" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -15812,7 +15812,7 @@
         <v>3614</v>
       </c>
       <c r="G199" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -15835,7 +15835,7 @@
         <v>3614</v>
       </c>
       <c r="G200" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -15858,7 +15858,7 @@
         <v>3614</v>
       </c>
       <c r="G201" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -15881,7 +15881,7 @@
         <v>3614</v>
       </c>
       <c r="G202" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -15927,7 +15927,7 @@
         <v>3614</v>
       </c>
       <c r="G204" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -15950,7 +15950,7 @@
         <v>3614</v>
       </c>
       <c r="G205" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -15973,7 +15973,7 @@
         <v>3614</v>
       </c>
       <c r="G206" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -15996,7 +15996,7 @@
         <v>3614</v>
       </c>
       <c r="G207" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -16019,7 +16019,7 @@
         <v>3614</v>
       </c>
       <c r="G208" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -16042,7 +16042,7 @@
         <v>3614</v>
       </c>
       <c r="G209" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -16065,7 +16065,7 @@
         <v>3614</v>
       </c>
       <c r="G210" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -16088,7 +16088,7 @@
         <v>3614</v>
       </c>
       <c r="G211" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -16111,7 +16111,7 @@
         <v>3614</v>
       </c>
       <c r="G212" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -16134,7 +16134,7 @@
         <v>3614</v>
       </c>
       <c r="G213" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -16157,7 +16157,7 @@
         <v>3614</v>
       </c>
       <c r="G214" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -16203,7 +16203,7 @@
         <v>3614</v>
       </c>
       <c r="G216" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -16226,7 +16226,7 @@
         <v>3614</v>
       </c>
       <c r="G217" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -16249,7 +16249,7 @@
         <v>3614</v>
       </c>
       <c r="G218" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -16272,7 +16272,7 @@
         <v>3614</v>
       </c>
       <c r="G219" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -16318,7 +16318,7 @@
         <v>3614</v>
       </c>
       <c r="G221" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -16341,7 +16341,7 @@
         <v>3614</v>
       </c>
       <c r="G222" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -16364,7 +16364,7 @@
         <v>3614</v>
       </c>
       <c r="G223" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -16410,7 +16410,7 @@
         <v>3614</v>
       </c>
       <c r="G225" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -16479,7 +16479,7 @@
         <v>3614</v>
       </c>
       <c r="G228" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -16502,7 +16502,7 @@
         <v>3614</v>
       </c>
       <c r="G229" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -16525,7 +16525,7 @@
         <v>3614</v>
       </c>
       <c r="G230" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -16548,7 +16548,7 @@
         <v>3614</v>
       </c>
       <c r="G231" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -16571,7 +16571,7 @@
         <v>3614</v>
       </c>
       <c r="G232" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -16594,7 +16594,7 @@
         <v>3614</v>
       </c>
       <c r="G233" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -16617,7 +16617,7 @@
         <v>3614</v>
       </c>
       <c r="G234" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -16640,7 +16640,7 @@
         <v>3614</v>
       </c>
       <c r="G235" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -16686,7 +16686,7 @@
         <v>3614</v>
       </c>
       <c r="G237" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -16755,7 +16755,7 @@
         <v>3614</v>
       </c>
       <c r="G240" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -16778,7 +16778,7 @@
         <v>3614</v>
       </c>
       <c r="G241" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -16824,7 +16824,7 @@
         <v>3614</v>
       </c>
       <c r="G243" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -16847,7 +16847,7 @@
         <v>3614</v>
       </c>
       <c r="G244" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -16893,7 +16893,7 @@
         <v>3614</v>
       </c>
       <c r="G246" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -16962,7 +16962,7 @@
         <v>3614</v>
       </c>
       <c r="G249" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -16985,7 +16985,7 @@
         <v>3614</v>
       </c>
       <c r="G250" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -17008,7 +17008,7 @@
         <v>3614</v>
       </c>
       <c r="G251" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -17031,7 +17031,7 @@
         <v>3614</v>
       </c>
       <c r="G252" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -17054,7 +17054,7 @@
         <v>3614</v>
       </c>
       <c r="G253" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -17077,7 +17077,7 @@
         <v>3614</v>
       </c>
       <c r="G254" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -17100,7 +17100,7 @@
         <v>3614</v>
       </c>
       <c r="G255" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -17123,7 +17123,7 @@
         <v>3614</v>
       </c>
       <c r="G256" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -17146,7 +17146,7 @@
         <v>3614</v>
       </c>
       <c r="G257" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -17192,7 +17192,7 @@
         <v>3614</v>
       </c>
       <c r="G259" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -17215,7 +17215,7 @@
         <v>3614</v>
       </c>
       <c r="G260" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -17238,7 +17238,7 @@
         <v>3614</v>
       </c>
       <c r="G261" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -17261,7 +17261,7 @@
         <v>3614</v>
       </c>
       <c r="G262" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -17284,7 +17284,7 @@
         <v>3614</v>
       </c>
       <c r="G263" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -17307,7 +17307,7 @@
         <v>3614</v>
       </c>
       <c r="G264" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -17353,7 +17353,7 @@
         <v>3614</v>
       </c>
       <c r="G266" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -17376,7 +17376,7 @@
         <v>3614</v>
       </c>
       <c r="G267" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -17399,7 +17399,7 @@
         <v>3614</v>
       </c>
       <c r="G268" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -17422,7 +17422,7 @@
         <v>3614</v>
       </c>
       <c r="G269" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -17468,7 +17468,7 @@
         <v>3614</v>
       </c>
       <c r="G271" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -17491,7 +17491,7 @@
         <v>3614</v>
       </c>
       <c r="G272" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -17537,7 +17537,7 @@
         <v>3614</v>
       </c>
       <c r="G274" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -17560,7 +17560,7 @@
         <v>3614</v>
       </c>
       <c r="G275" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -17583,7 +17583,7 @@
         <v>3614</v>
       </c>
       <c r="G276" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -17606,7 +17606,7 @@
         <v>3614</v>
       </c>
       <c r="G277" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -17629,7 +17629,7 @@
         <v>3614</v>
       </c>
       <c r="G278" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -17652,7 +17652,7 @@
         <v>3614</v>
       </c>
       <c r="G279" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -17675,7 +17675,7 @@
         <v>3614</v>
       </c>
       <c r="G280" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -17698,7 +17698,7 @@
         <v>3614</v>
       </c>
       <c r="G281" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -17721,7 +17721,7 @@
         <v>3614</v>
       </c>
       <c r="G282" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -17744,7 +17744,7 @@
         <v>3614</v>
       </c>
       <c r="G283" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -17790,7 +17790,7 @@
         <v>3614</v>
       </c>
       <c r="G285" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -17813,7 +17813,7 @@
         <v>3614</v>
       </c>
       <c r="G286" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -17836,7 +17836,7 @@
         <v>3614</v>
       </c>
       <c r="G287" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -17859,7 +17859,7 @@
         <v>3614</v>
       </c>
       <c r="G288" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -17882,7 +17882,7 @@
         <v>3614</v>
       </c>
       <c r="G289" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -17905,7 +17905,7 @@
         <v>3614</v>
       </c>
       <c r="G290" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -17928,7 +17928,7 @@
         <v>3614</v>
       </c>
       <c r="G291" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -17951,7 +17951,7 @@
         <v>3614</v>
       </c>
       <c r="G292" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -17974,7 +17974,7 @@
         <v>3614</v>
       </c>
       <c r="G293" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -17997,7 +17997,7 @@
         <v>3614</v>
       </c>
       <c r="G294" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -18020,7 +18020,7 @@
         <v>3614</v>
       </c>
       <c r="G295" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -18043,7 +18043,7 @@
         <v>3614</v>
       </c>
       <c r="G296" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -18066,7 +18066,7 @@
         <v>3614</v>
       </c>
       <c r="G297" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -18089,7 +18089,7 @@
         <v>3614</v>
       </c>
       <c r="G298" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -18112,7 +18112,7 @@
         <v>3614</v>
       </c>
       <c r="G299" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -18135,7 +18135,7 @@
         <v>3614</v>
       </c>
       <c r="G300" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -18158,7 +18158,7 @@
         <v>3614</v>
       </c>
       <c r="G301" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -18181,7 +18181,7 @@
         <v>3614</v>
       </c>
       <c r="G302" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -18204,7 +18204,7 @@
         <v>3614</v>
       </c>
       <c r="G303" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -18227,7 +18227,7 @@
         <v>3614</v>
       </c>
       <c r="G304" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -18250,7 +18250,7 @@
         <v>3614</v>
       </c>
       <c r="G305" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -18273,7 +18273,7 @@
         <v>3614</v>
       </c>
       <c r="G306" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -18296,7 +18296,7 @@
         <v>3614</v>
       </c>
       <c r="G307" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -18319,7 +18319,7 @@
         <v>3614</v>
       </c>
       <c r="G308" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -18342,7 +18342,7 @@
         <v>3614</v>
       </c>
       <c r="G309" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -18365,7 +18365,7 @@
         <v>3614</v>
       </c>
       <c r="G310" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -18388,7 +18388,7 @@
         <v>3614</v>
       </c>
       <c r="G311" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -18411,7 +18411,7 @@
         <v>3614</v>
       </c>
       <c r="G312" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -18434,7 +18434,7 @@
         <v>3614</v>
       </c>
       <c r="G313" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -18457,7 +18457,7 @@
         <v>3614</v>
       </c>
       <c r="G314" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -18503,7 +18503,7 @@
         <v>3614</v>
       </c>
       <c r="G316" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -18526,7 +18526,7 @@
         <v>3614</v>
       </c>
       <c r="G317" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -18549,7 +18549,7 @@
         <v>3614</v>
       </c>
       <c r="G318" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -18572,7 +18572,7 @@
         <v>3614</v>
       </c>
       <c r="G319" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -18595,7 +18595,7 @@
         <v>3614</v>
       </c>
       <c r="G320" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -18618,7 +18618,7 @@
         <v>3614</v>
       </c>
       <c r="G321" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -18641,7 +18641,7 @@
         <v>3614</v>
       </c>
       <c r="G322" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -18687,7 +18687,7 @@
         <v>3614</v>
       </c>
       <c r="G324" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -18733,7 +18733,7 @@
         <v>3614</v>
       </c>
       <c r="G326" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -18779,7 +18779,7 @@
         <v>3614</v>
       </c>
       <c r="G328" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -18802,7 +18802,7 @@
         <v>3614</v>
       </c>
       <c r="G329" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -18825,7 +18825,7 @@
         <v>3614</v>
       </c>
       <c r="G330" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -18848,7 +18848,7 @@
         <v>3614</v>
       </c>
       <c r="G331" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -18871,7 +18871,7 @@
         <v>3614</v>
       </c>
       <c r="G332" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -18894,7 +18894,7 @@
         <v>3614</v>
       </c>
       <c r="G333" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -18940,7 +18940,7 @@
         <v>3614</v>
       </c>
       <c r="G335" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -18963,7 +18963,7 @@
         <v>3614</v>
       </c>
       <c r="G336" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -19009,7 +19009,7 @@
         <v>3614</v>
       </c>
       <c r="G338" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -19055,7 +19055,7 @@
         <v>3614</v>
       </c>
       <c r="G340" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -19078,7 +19078,7 @@
         <v>3614</v>
       </c>
       <c r="G341" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -19101,7 +19101,7 @@
         <v>3614</v>
       </c>
       <c r="G342" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -19124,7 +19124,7 @@
         <v>3614</v>
       </c>
       <c r="G343" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -19147,7 +19147,7 @@
         <v>3614</v>
       </c>
       <c r="G344" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -19170,7 +19170,7 @@
         <v>3614</v>
       </c>
       <c r="G345" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -19193,7 +19193,7 @@
         <v>3614</v>
       </c>
       <c r="G346" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -19216,7 +19216,7 @@
         <v>3614</v>
       </c>
       <c r="G347" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -19262,7 +19262,7 @@
         <v>3614</v>
       </c>
       <c r="G349" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -19285,7 +19285,7 @@
         <v>3614</v>
       </c>
       <c r="G350" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -19308,7 +19308,7 @@
         <v>3614</v>
       </c>
       <c r="G351" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -19331,7 +19331,7 @@
         <v>3614</v>
       </c>
       <c r="G352" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -19377,7 +19377,7 @@
         <v>3614</v>
       </c>
       <c r="G354" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -19400,7 +19400,7 @@
         <v>3614</v>
       </c>
       <c r="G355" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -19492,7 +19492,7 @@
         <v>3614</v>
       </c>
       <c r="G359" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -19515,7 +19515,7 @@
         <v>3614</v>
       </c>
       <c r="G360" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -19561,7 +19561,7 @@
         <v>3614</v>
       </c>
       <c r="G362" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -19584,7 +19584,7 @@
         <v>3614</v>
       </c>
       <c r="G363" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -19607,7 +19607,7 @@
         <v>3614</v>
       </c>
       <c r="G364" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -19630,7 +19630,7 @@
         <v>3614</v>
       </c>
       <c r="G365" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -19653,7 +19653,7 @@
         <v>3614</v>
       </c>
       <c r="G366" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -19676,7 +19676,7 @@
         <v>3614</v>
       </c>
       <c r="G367" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -19699,7 +19699,7 @@
         <v>3614</v>
       </c>
       <c r="G368" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -19768,7 +19768,7 @@
         <v>3614</v>
       </c>
       <c r="G371" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -19791,7 +19791,7 @@
         <v>3614</v>
       </c>
       <c r="G372" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -19814,7 +19814,7 @@
         <v>3614</v>
       </c>
       <c r="G373" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -19837,7 +19837,7 @@
         <v>3614</v>
       </c>
       <c r="G374" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -19860,7 +19860,7 @@
         <v>3614</v>
       </c>
       <c r="G375" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -19906,7 +19906,7 @@
         <v>3614</v>
       </c>
       <c r="G377" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -19929,7 +19929,7 @@
         <v>3614</v>
       </c>
       <c r="G378" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -19975,7 +19975,7 @@
         <v>3614</v>
       </c>
       <c r="G380" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -20021,7 +20021,7 @@
         <v>3614</v>
       </c>
       <c r="G382" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -20044,7 +20044,7 @@
         <v>3614</v>
       </c>
       <c r="G383" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -20067,7 +20067,7 @@
         <v>3614</v>
       </c>
       <c r="G384" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -20113,7 +20113,7 @@
         <v>3614</v>
       </c>
       <c r="G386" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -20159,7 +20159,7 @@
         <v>3614</v>
       </c>
       <c r="G388" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -20182,7 +20182,7 @@
         <v>3614</v>
       </c>
       <c r="G389" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -20228,7 +20228,7 @@
         <v>3614</v>
       </c>
       <c r="G391" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -20251,7 +20251,7 @@
         <v>3614</v>
       </c>
       <c r="G392" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -20274,7 +20274,7 @@
         <v>3614</v>
       </c>
       <c r="G393" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -20297,7 +20297,7 @@
         <v>3614</v>
       </c>
       <c r="G394" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -20343,7 +20343,7 @@
         <v>3614</v>
       </c>
       <c r="G396" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -20366,7 +20366,7 @@
         <v>3614</v>
       </c>
       <c r="G397" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -20389,7 +20389,7 @@
         <v>3614</v>
       </c>
       <c r="G398" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -20412,7 +20412,7 @@
         <v>3614</v>
       </c>
       <c r="G399" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -20435,7 +20435,7 @@
         <v>3614</v>
       </c>
       <c r="G400" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -20481,7 +20481,7 @@
         <v>3614</v>
       </c>
       <c r="G402" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -20504,7 +20504,7 @@
         <v>3614</v>
       </c>
       <c r="G403" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -20527,7 +20527,7 @@
         <v>3614</v>
       </c>
       <c r="G404" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -20596,7 +20596,7 @@
         <v>3614</v>
       </c>
       <c r="G407" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -20619,7 +20619,7 @@
         <v>3614</v>
       </c>
       <c r="G408" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -20642,7 +20642,7 @@
         <v>3614</v>
       </c>
       <c r="G409" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -20711,7 +20711,7 @@
         <v>3614</v>
       </c>
       <c r="G412" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -20734,7 +20734,7 @@
         <v>3614</v>
       </c>
       <c r="G413" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -20757,7 +20757,7 @@
         <v>3614</v>
       </c>
       <c r="G414" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -20780,7 +20780,7 @@
         <v>3614</v>
       </c>
       <c r="G415" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -20803,7 +20803,7 @@
         <v>3614</v>
       </c>
       <c r="G416" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -20826,7 +20826,7 @@
         <v>3614</v>
       </c>
       <c r="G417" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -20849,7 +20849,7 @@
         <v>3614</v>
       </c>
       <c r="G418" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -20872,7 +20872,7 @@
         <v>3614</v>
       </c>
       <c r="G419" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -20895,7 +20895,7 @@
         <v>3614</v>
       </c>
       <c r="G420" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -20918,7 +20918,7 @@
         <v>3614</v>
       </c>
       <c r="G421" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -20941,7 +20941,7 @@
         <v>3614</v>
       </c>
       <c r="G422" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -20987,7 +20987,7 @@
         <v>3614</v>
       </c>
       <c r="G424" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -21010,7 +21010,7 @@
         <v>3614</v>
       </c>
       <c r="G425" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -21033,7 +21033,7 @@
         <v>3614</v>
       </c>
       <c r="G426" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -21056,7 +21056,7 @@
         <v>3614</v>
       </c>
       <c r="G427" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -21079,7 +21079,7 @@
         <v>3614</v>
       </c>
       <c r="G428" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -21102,7 +21102,7 @@
         <v>3614</v>
       </c>
       <c r="G429" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -21148,7 +21148,7 @@
         <v>3614</v>
       </c>
       <c r="G431" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -21171,7 +21171,7 @@
         <v>3614</v>
       </c>
       <c r="G432" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -21194,7 +21194,7 @@
         <v>3614</v>
       </c>
       <c r="G433" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -21217,7 +21217,7 @@
         <v>3614</v>
       </c>
       <c r="G434" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -21240,7 +21240,7 @@
         <v>3614</v>
       </c>
       <c r="G435" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -21286,7 +21286,7 @@
         <v>3614</v>
       </c>
       <c r="G437" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -21309,7 +21309,7 @@
         <v>3614</v>
       </c>
       <c r="G438" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -21355,7 +21355,7 @@
         <v>3614</v>
       </c>
       <c r="G440" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -21378,7 +21378,7 @@
         <v>3614</v>
       </c>
       <c r="G441" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -21401,7 +21401,7 @@
         <v>3614</v>
       </c>
       <c r="G442" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -21424,7 +21424,7 @@
         <v>3614</v>
       </c>
       <c r="G443" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -21447,7 +21447,7 @@
         <v>3614</v>
       </c>
       <c r="G444" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -21470,7 +21470,7 @@
         <v>3614</v>
       </c>
       <c r="G445" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -21516,7 +21516,7 @@
         <v>3614</v>
       </c>
       <c r="G447" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -21539,7 +21539,7 @@
         <v>3614</v>
       </c>
       <c r="G448" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -21562,7 +21562,7 @@
         <v>3614</v>
       </c>
       <c r="G449" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -21585,7 +21585,7 @@
         <v>3614</v>
       </c>
       <c r="G450" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -21608,7 +21608,7 @@
         <v>3614</v>
       </c>
       <c r="G451" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -21654,7 +21654,7 @@
         <v>3614</v>
       </c>
       <c r="G453" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -21677,7 +21677,7 @@
         <v>3614</v>
       </c>
       <c r="G454" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -21700,7 +21700,7 @@
         <v>3614</v>
       </c>
       <c r="G455" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -21723,7 +21723,7 @@
         <v>3614</v>
       </c>
       <c r="G456" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -21746,7 +21746,7 @@
         <v>3614</v>
       </c>
       <c r="G457" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -21769,7 +21769,7 @@
         <v>3614</v>
       </c>
       <c r="G458" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -21792,7 +21792,7 @@
         <v>3614</v>
       </c>
       <c r="G459" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -21838,7 +21838,7 @@
         <v>3614</v>
       </c>
       <c r="G461" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -21861,7 +21861,7 @@
         <v>3614</v>
       </c>
       <c r="G462" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -21884,7 +21884,7 @@
         <v>3614</v>
       </c>
       <c r="G463" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -21907,7 +21907,7 @@
         <v>3614</v>
       </c>
       <c r="G464" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -21930,7 +21930,7 @@
         <v>3614</v>
       </c>
       <c r="G465" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -21953,7 +21953,7 @@
         <v>3614</v>
       </c>
       <c r="G466" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -21976,7 +21976,7 @@
         <v>3614</v>
       </c>
       <c r="G467" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -22045,7 +22045,7 @@
         <v>3614</v>
       </c>
       <c r="G470" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -22091,7 +22091,7 @@
         <v>3614</v>
       </c>
       <c r="G472" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -22114,7 +22114,7 @@
         <v>3614</v>
       </c>
       <c r="G473" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -22160,7 +22160,7 @@
         <v>3614</v>
       </c>
       <c r="G475" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -22183,7 +22183,7 @@
         <v>3614</v>
       </c>
       <c r="G476" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -22206,7 +22206,7 @@
         <v>3614</v>
       </c>
       <c r="G477" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -22229,7 +22229,7 @@
         <v>3614</v>
       </c>
       <c r="G478" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -22252,7 +22252,7 @@
         <v>3614</v>
       </c>
       <c r="G479" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -22321,7 +22321,7 @@
         <v>3614</v>
       </c>
       <c r="G482" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -22344,7 +22344,7 @@
         <v>3614</v>
       </c>
       <c r="G483" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -22367,7 +22367,7 @@
         <v>3614</v>
       </c>
       <c r="G484" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -22390,7 +22390,7 @@
         <v>3614</v>
       </c>
       <c r="G485" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -22413,7 +22413,7 @@
         <v>3614</v>
       </c>
       <c r="G486" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -22436,7 +22436,7 @@
         <v>3614</v>
       </c>
       <c r="G487" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -22459,7 +22459,7 @@
         <v>3614</v>
       </c>
       <c r="G488" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -22482,7 +22482,7 @@
         <v>3614</v>
       </c>
       <c r="G489" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -22528,7 +22528,7 @@
         <v>3614</v>
       </c>
       <c r="G491" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -22551,7 +22551,7 @@
         <v>3614</v>
       </c>
       <c r="G492" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -22574,7 +22574,7 @@
         <v>3614</v>
       </c>
       <c r="G493" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -22597,7 +22597,7 @@
         <v>3614</v>
       </c>
       <c r="G494" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -22620,7 +22620,7 @@
         <v>3614</v>
       </c>
       <c r="G495" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -22666,7 +22666,7 @@
         <v>3614</v>
       </c>
       <c r="G497" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -22712,7 +22712,7 @@
         <v>3614</v>
       </c>
       <c r="G499" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -22735,7 +22735,7 @@
         <v>3614</v>
       </c>
       <c r="G500" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -40652,7 +40652,7 @@
         <v>3614</v>
       </c>
       <c r="G1279" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1280" spans="1:7">
@@ -46494,7 +46494,7 @@
         <v>3614</v>
       </c>
       <c r="G1533" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1534" spans="1:7">
@@ -48563,6 +48563,9 @@
       <c r="F1623" t="s">
         <v>3614</v>
       </c>
+      <c r="G1623" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1624" spans="1:7">
       <c r="A1624" t="s">
@@ -48583,6 +48586,9 @@
       <c r="F1624" t="s">
         <v>3614</v>
       </c>
+      <c r="G1624" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1625" spans="1:7">
       <c r="A1625" t="s">
@@ -48603,6 +48609,9 @@
       <c r="F1625" t="s">
         <v>3614</v>
       </c>
+      <c r="G1625" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1626" spans="1:7">
       <c r="A1626" t="s">
@@ -48623,6 +48632,9 @@
       <c r="F1626" t="s">
         <v>3614</v>
       </c>
+      <c r="G1626" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1627" spans="1:7">
       <c r="A1627" t="s">
@@ -48643,6 +48655,9 @@
       <c r="F1627" t="s">
         <v>3614</v>
       </c>
+      <c r="G1627" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1628" spans="1:7">
       <c r="A1628" t="s">
@@ -48663,6 +48678,9 @@
       <c r="F1628" t="s">
         <v>3614</v>
       </c>
+      <c r="G1628" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1629" spans="1:7">
       <c r="A1629" t="s">
@@ -48683,6 +48701,9 @@
       <c r="F1629" t="s">
         <v>3614</v>
       </c>
+      <c r="G1629" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1630" spans="1:7">
       <c r="A1630" t="s">
@@ -48703,6 +48724,9 @@
       <c r="F1630" t="s">
         <v>3614</v>
       </c>
+      <c r="G1630" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1631" spans="1:7">
       <c r="A1631" t="s">
@@ -48723,6 +48747,9 @@
       <c r="F1631" t="s">
         <v>3614</v>
       </c>
+      <c r="G1631" t="s">
+        <v>3614</v>
+      </c>
     </row>
     <row r="1632" spans="1:7">
       <c r="A1632" t="s">
@@ -48741,6 +48768,9 @@
         <v>3613</v>
       </c>
       <c r="F1632" t="s">
+        <v>3614</v>
+      </c>
+      <c r="G1632" t="s">
         <v>3614</v>
       </c>
     </row>
